--- a/testes.xlsx
+++ b/testes.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Seção Judiciária</t>
+          <t>sigla</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Processos entre 30 e 59 dias sem movimento</t>
+          <t>sem_movimento_30</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Processos entre 60 e 89 dias sem movimento</t>
+          <t>sem_movimento_60</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Processos com mais de 90 dias sem movimento</t>
+          <t>sem_movimento_90</t>
         </is>
       </c>
     </row>
@@ -464,20 +464,14 @@
           <t>AL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.922</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.487</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>18.167</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20922</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7487</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18167</v>
       </c>
     </row>
     <row r="3">
@@ -489,20 +483,14 @@
           <t>CE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>39.672</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.554</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33.331</t>
-        </is>
+      <c r="C3" t="n">
+        <v>39672</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12554</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33331</v>
       </c>
     </row>
     <row r="4">
@@ -514,20 +502,14 @@
           <t>PB</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>25.703</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.174</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18.603</t>
-        </is>
+      <c r="C4" t="n">
+        <v>25703</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8174</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18603</v>
       </c>
     </row>
     <row r="5">
@@ -539,20 +521,14 @@
           <t>PE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>31.815</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.147</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.301</t>
-        </is>
+      <c r="C5" t="n">
+        <v>31815</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10147</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20301</v>
       </c>
     </row>
     <row r="6">
@@ -564,20 +540,14 @@
           <t>RN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15.442</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.749</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.176</t>
-        </is>
+      <c r="C6" t="n">
+        <v>15442</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3749</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4176</v>
       </c>
     </row>
     <row r="7">
@@ -589,20 +559,14 @@
           <t>SE</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>13.368</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.782</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.064</t>
-        </is>
+      <c r="C7" t="n">
+        <v>13368</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3782</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6064</v>
       </c>
     </row>
   </sheetData>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
